--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang3/02.XuLyBH/XLBH2203_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="PhuKien" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16464</t>
+  </si>
+  <si>
+    <t>Thiết bị lúc nhận sim lúc không</t>
+  </si>
+  <si>
+    <t>Lỏng cos</t>
+  </si>
+  <si>
+    <t>Sửa cos</t>
   </si>
 </sst>
 </file>
@@ -736,30 +748,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,6 +765,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1087,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,43 +1132,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1201,58 +1213,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1277,23 +1289,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1315,9 @@
       <c r="B6" s="61">
         <v>44637</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44644</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>69</v>
       </c>
@@ -1316,18 +1330,30 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>100</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1358,7 +1384,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1413,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1442,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1445,7 +1471,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1500,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1503,7 +1529,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1534,7 +1560,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1589,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1618,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1647,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1798,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2081,7 +2107,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2273,7 +2299,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2852,6 +2878,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2863,13 +2896,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2881,7 +2907,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2913,43 +2939,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2994,58 +3020,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3070,23 +3096,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3096,7 +3122,9 @@
       <c r="B6" s="61">
         <v>44637</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44644</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3138,7 +3166,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3153,7 +3181,9 @@
       <c r="B7" s="61">
         <v>44637</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44644</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3191,7 +3221,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3204,7 +3234,9 @@
       <c r="B8" s="61">
         <v>44637</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44644</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -3242,7 +3274,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3255,7 +3287,9 @@
       <c r="B9" s="61">
         <v>44637</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44644</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3331,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3310,7 +3344,9 @@
       <c r="B10" s="61">
         <v>44637</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44644</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -3350,7 +3386,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3363,7 +3399,9 @@
       <c r="B11" s="61">
         <v>44637</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44644</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -3403,7 +3441,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3416,7 +3454,9 @@
       <c r="B12" s="61">
         <v>44637</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44644</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -3460,7 +3500,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3475,7 +3515,9 @@
       <c r="B13" s="61">
         <v>44637</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44644</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -3515,7 +3557,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3528,7 +3570,9 @@
       <c r="B14" s="61">
         <v>44637</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44644</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -3566,7 +3610,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3579,7 +3623,9 @@
       <c r="B15" s="61">
         <v>44637</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44644</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
@@ -3619,7 +3665,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3632,7 +3678,9 @@
       <c r="B16" s="61">
         <v>44637</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>44644</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>44</v>
       </c>
@@ -3670,7 +3718,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3683,7 +3731,9 @@
       <c r="B17" s="61">
         <v>44637</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>44644</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>44</v>
       </c>
@@ -3732,7 +3782,9 @@
       <c r="B18" s="61">
         <v>44637</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="61">
+        <v>44644</v>
+      </c>
       <c r="D18" s="37" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +3835,9 @@
       <c r="B19" s="61">
         <v>44637</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="61">
+        <v>44644</v>
+      </c>
       <c r="D19" s="37" t="s">
         <v>44</v>
       </c>
@@ -3836,7 +3890,9 @@
       <c r="B20" s="61">
         <v>44637</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="61">
+        <v>44644</v>
+      </c>
       <c r="D20" s="37" t="s">
         <v>44</v>
       </c>
@@ -3890,7 +3946,9 @@
       <c r="B21" s="61">
         <v>44637</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="61">
+        <v>44644</v>
+      </c>
       <c r="D21" s="37" t="s">
         <v>44</v>
       </c>
@@ -3946,7 +4004,9 @@
       <c r="B22" s="61">
         <v>44637</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="61">
+        <v>44644</v>
+      </c>
       <c r="D22" s="37" t="s">
         <v>44</v>
       </c>
@@ -3998,7 +4058,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="58"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
       <c r="F23" s="37"/>
@@ -5037,6 +5097,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5048,13 +5115,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5065,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5098,43 +5158,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -5179,58 +5239,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -5255,23 +5315,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,7 +5341,9 @@
       <c r="B6" s="61">
         <v>44637</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44644</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
@@ -5323,7 +5385,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5338,7 +5400,9 @@
       <c r="B7" s="61">
         <v>44637</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44644</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>56</v>
       </c>
@@ -5378,7 +5442,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5391,7 +5455,9 @@
       <c r="B8" s="61">
         <v>44637</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44644</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>56</v>
       </c>
@@ -5403,9 +5469,13 @@
         <v>62</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>63</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
         <v>89</v>
@@ -5425,7 +5495,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5438,7 +5508,9 @@
       <c r="B9" s="61">
         <v>44637</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44644</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>56</v>
       </c>
@@ -5478,7 +5550,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5491,7 +5563,9 @@
       <c r="B10" s="61">
         <v>44637</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44644</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>56</v>
       </c>
@@ -5503,19 +5577,35 @@
         <v>62</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5528,7 +5618,9 @@
       <c r="B11" s="61">
         <v>44637</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44644</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>56</v>
       </c>
@@ -5540,19 +5632,33 @@
         <v>62</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5565,7 +5671,9 @@
       <c r="B12" s="61">
         <v>44637</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44644</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>56</v>
       </c>
@@ -5605,7 +5713,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5620,7 +5728,9 @@
       <c r="B13" s="61">
         <v>44637</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44644</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>56</v>
       </c>
@@ -5642,15 +5752,25 @@
         <v>92</v>
       </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>96</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5663,7 +5783,9 @@
       <c r="B14" s="61">
         <v>44637</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>44644</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>56</v>
       </c>
@@ -5703,7 +5825,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5716,7 +5838,9 @@
       <c r="B15" s="61">
         <v>44637</v>
       </c>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>44644</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>56</v>
       </c>
@@ -5756,7 +5880,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5785,7 +5909,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5968,7 +6092,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6245,7 +6369,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6373,7 +6497,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6437,7 +6561,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7016,13 +7140,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7034,6 +7151,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7077,43 +7201,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -7158,58 +7282,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -7234,23 +7358,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7276,7 +7400,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -7307,7 +7431,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7336,7 +7460,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7365,7 +7489,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -7394,7 +7518,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7423,7 +7547,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7452,7 +7576,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7483,7 +7607,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7512,7 +7636,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7541,7 +7665,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7570,7 +7694,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8801,6 +8925,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8812,13 +8943,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
